--- a/DB設計/テーブル設計書.xlsx
+++ b/DB設計/テーブル設計書.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\IksInfoShare\基本設計\DB設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\IksInfoShare\DB設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1818EFC-77DF-43ED-A83D-FB1F560C0D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403EBCD4-9621-42D2-B611-6B667DB78EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11430" yWindow="1410" windowWidth="14520" windowHeight="13185" firstSheet="3" activeTab="4" xr2:uid="{CC34C650-121F-49E2-A7A3-3D724DCA60A6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CC34C650-121F-49E2-A7A3-3D724DCA60A6}"/>
   </bookViews>
   <sheets>
-    <sheet name="アプリ定義テーブル" sheetId="6" r:id="rId1"/>
-    <sheet name="ユーザーテーブル" sheetId="1" r:id="rId2"/>
-    <sheet name="チャットルームテーブル" sheetId="3" r:id="rId3"/>
-    <sheet name="チャットメッセージテーブル" sheetId="4" r:id="rId4"/>
-    <sheet name="チャットルームメンバーテーブル" sheetId="5" r:id="rId5"/>
+    <sheet name="ER図" sheetId="7" r:id="rId1"/>
+    <sheet name="アプリ定義テーブル" sheetId="6" r:id="rId2"/>
+    <sheet name="ユーザーテーブル" sheetId="1" r:id="rId3"/>
+    <sheet name="チャットルームテーブル" sheetId="3" r:id="rId4"/>
+    <sheet name="チャットメンバーテーブル" sheetId="5" r:id="rId5"/>
+    <sheet name="チャットメッセージ履歴テーブル" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="72">
   <si>
     <t>ユーザーテーブル</t>
     <phoneticPr fontId="1"/>
@@ -46,10 +47,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パスワード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>チャットルームテーブル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -145,10 +142,6 @@
     <rPh sb="4" eb="6">
       <t>イチイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チャットメッセージテーブル</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -299,10 +292,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>chat_message</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>chat_room</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -388,6 +377,124 @@
   </si>
   <si>
     <t>text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーパスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chat_member</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャットメンバーテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリ定義テーブル</t>
+    <rPh sb="3" eb="5">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル論理名</t>
+    <rPh sb="4" eb="7">
+      <t>ロンリメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル物理名</t>
+    <rPh sb="4" eb="6">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリで使う情報を定義</t>
+    <rPh sb="4" eb="5">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーの認証に必要な情報</t>
+    <rPh sb="5" eb="7">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャットを実施する部屋単位の情報</t>
+    <rPh sb="5" eb="7">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャットルームごとに関連するメンバー情報をユーザーと紐づけ</t>
+    <rPh sb="10" eb="12">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヒモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chat_message_history</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャットメッセージ履歴テーブル</t>
+    <rPh sb="9" eb="11">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャットルームごとに行われたチャット情報を履歴として管理するテーブル</t>
+    <rPh sb="10" eb="11">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カンリ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -395,7 +502,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,16 +518,31 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -428,21 +550,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -456,6 +609,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>162905</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{653F6116-DBC7-453C-6CC4-F132B1DDF2C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="238125"/>
+          <a:ext cx="7020905" cy="6449325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -754,12 +956,103 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB81733-31F3-432E-9747-ECB88BF74D9D}">
+  <dimension ref="M3:O8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="13" max="13" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="13:15" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="M6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="13:15" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="M7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="13:15" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="M8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="N5" location="ユーザーテーブル!A1" display="ユーザーテーブル" xr:uid="{E5CFE453-3D3E-4778-9796-CC80DA4D3156}"/>
+    <hyperlink ref="N6" location="チャットルームテーブル!A1" display="チャットルームテーブル" xr:uid="{DF5FD3C8-35EE-4461-9469-1FA9712F8F16}"/>
+    <hyperlink ref="N7" location="チャットメンバーテーブル!A1" display="チャットメンバーテーブル" xr:uid="{D6EBDD2E-8336-4E8C-A769-946BD53FF30B}"/>
+    <hyperlink ref="N8" location="チャットメッセージテーブル!A1" display="チャットメッセージテーブル" xr:uid="{FBA3CEA5-DD09-4AC0-B4DC-17C6B0EBC792}"/>
+    <hyperlink ref="N4" location="アプリ定義テーブル!A1" display="アプリ定義テーブル" xr:uid="{59939546-F17E-4CDF-9066-9E0B59312665}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C989200A-7B14-4110-A76F-50FA2AF7CCD2}">
   <dimension ref="B2:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -771,82 +1064,88 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>47</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B7" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="C7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" t="s">
-        <v>59</v>
-      </c>
+      <c r="D8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:F2"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A3F150-3B9B-46D9-897F-56E838CD91D0}">
   <dimension ref="B2:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.875" customWidth="1"/>
   </cols>
@@ -858,69 +1157,73 @@
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>56</v>
-      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>56</v>
-      </c>
+      <c r="B9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -928,13 +1231,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32D1934-16CA-4BC9-B2C4-27EC3F66CE52}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -946,103 +1247,110 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1051,13 +1359,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFC0BC7-0F09-4974-847D-6E30A0EC57C3}">
-  <dimension ref="B2:F12"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8529231-C562-4C83-BBB1-FC7315CD7DDC}">
+  <dimension ref="B2:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1070,111 +1376,65 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="75" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1182,15 +1442,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8529231-C562-4C83-BBB1-FC7315CD7DDC}">
-  <dimension ref="B2:F8"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFC0BC7-0F09-4974-847D-6E30A0EC57C3}">
+  <dimension ref="B2:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="22.75" customWidth="1"/>
     <col min="3" max="3" width="13.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.375" customWidth="1"/>
@@ -1199,63 +1459,119 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>55</v>
-      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="2:6" ht="75" x14ac:dyDescent="0.4">
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/DB設計/テーブル設計書.xlsx
+++ b/DB設計/テーブル設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\IksInfoShare\DB設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403EBCD4-9621-42D2-B611-6B667DB78EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA2BE03-6B26-4652-A139-C4CF5D4548F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CC34C650-121F-49E2-A7A3-3D724DCA60A6}"/>
   </bookViews>
@@ -622,16 +622,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>162905</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>19950</xdr:rowOff>
+      <xdr:colOff>134326</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>229496</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{653F6116-DBC7-453C-6CC4-F132B1DDF2C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0265C66E-F5B0-C262-3291-5FA5FD4BB887}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -648,7 +648,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="685800" y="238125"/>
-          <a:ext cx="7020905" cy="6449325"/>
+          <a:ext cx="6992326" cy="6420746"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>

--- a/DB設計/テーブル設計書.xlsx
+++ b/DB設計/テーブル設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\IksInfoShare\DB設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA2BE03-6B26-4652-A139-C4CF5D4548F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7CBCF8-8731-42F6-93AF-0ACBC92498AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CC34C650-121F-49E2-A7A3-3D724DCA60A6}"/>
+    <workbookView xWindow="6450" yWindow="840" windowWidth="21735" windowHeight="14100" xr2:uid="{CC34C650-121F-49E2-A7A3-3D724DCA60A6}"/>
   </bookViews>
   <sheets>
     <sheet name="ER図" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="75">
   <si>
     <t>ユーザーテーブル</t>
     <phoneticPr fontId="1"/>
@@ -149,13 +149,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>送信ユーザーID</t>
-    <rPh sb="0" eb="2">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>送信メッセージ</t>
     <rPh sb="0" eb="2">
       <t>ソウシン</t>
@@ -177,32 +170,6 @@
     <rPh sb="7" eb="9">
       <t>シュベツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0：送信時間
-1：本文
-2：添付ファイル
-3：ルーム更新</t>
-    <rPh sb="2" eb="4">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ホンブン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>テンプ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チャットルームメンバーテーブル</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -280,10 +247,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>sent_user_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>message_kind</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -293,10 +256,6 @@
   </si>
   <si>
     <t>chat_room</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>chat_room_members</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -348,10 +307,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>varchar(10)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -494,6 +449,66 @@
     </rPh>
     <rPh sb="26" eb="28">
       <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0：送信時間
+1：本文
+2：添付ファイル
+3：ルーム作成、編集</t>
+    <rPh sb="2" eb="4">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ホンブン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>テンプ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>member_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メンバーID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sent_member_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送信メンバーID</t>
+    <rPh sb="0" eb="2">
+      <t>ソウシン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -542,7 +557,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -565,6 +580,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -574,7 +598,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -592,6 +616,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -970,68 +1000,68 @@
   <sheetData>
     <row r="3" spans="13:15" x14ac:dyDescent="0.4">
       <c r="M3" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="13:15" x14ac:dyDescent="0.4">
       <c r="M4" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="13:15" x14ac:dyDescent="0.4">
       <c r="M5" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="13:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="M6" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="13:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="M7" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="13:15" ht="56.25" x14ac:dyDescent="0.4">
       <c r="M8" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1050,7 +1080,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C989200A-7B14-4110-A76F-50FA2AF7CCD2}">
-  <dimension ref="B2:F8"/>
+  <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1059,28 +1089,30 @@
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="7" max="7" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1091,45 +1123,55 @@
         <v>12</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="E9" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1138,7 +1180,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A3F150-3B9B-46D9-897F-56E838CD91D0}">
-  <dimension ref="B2:F9"/>
+  <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1147,25 +1189,26 @@
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="7" max="7" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1176,54 +1219,62 @@
         <v>12</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1233,7 +1284,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32D1934-16CA-4BC9-B2C4-27EC3F66CE52}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1242,30 +1293,31 @@
     <col min="2" max="2" width="18.875" customWidth="1"/>
     <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1276,81 +1328,99 @@
         <v>12</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="3" t="s">
-        <v>26</v>
+        <v>70</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1361,7 +1431,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8529231-C562-4C83-BBB1-FC7315CD7DDC}">
-  <dimension ref="B2:F8"/>
+  <dimension ref="B2:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1370,26 +1440,27 @@
     <col min="2" max="2" width="18.875" customWidth="1"/>
     <col min="3" max="3" width="13.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="6" max="6" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1400,41 +1471,62 @@
         <v>12</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+        <v>68</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="E12" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1444,35 +1536,36 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFC0BC7-0F09-4974-847D-6E30A0EC57C3}">
-  <dimension ref="B2:F12"/>
+  <dimension ref="B2:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="22.75" customWidth="1"/>
-    <col min="3" max="3" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="6" max="6" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1483,95 +1576,118 @@
         <v>12</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="2:6" ht="75" x14ac:dyDescent="0.4">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="2:7" ht="93.75" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>22</v>
+        <v>70</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/DB設計/テーブル設計書.xlsx
+++ b/DB設計/テーブル設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\IksInfoShare\DB設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7CBCF8-8731-42F6-93AF-0ACBC92498AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BF6993-236F-43C1-A67F-BBAC28B5FED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6450" yWindow="840" windowWidth="21735" windowHeight="14100" xr2:uid="{CC34C650-121F-49E2-A7A3-3D724DCA60A6}"/>
+    <workbookView xWindow="7575" yWindow="405" windowWidth="21735" windowHeight="14100" xr2:uid="{CC34C650-121F-49E2-A7A3-3D724DCA60A6}"/>
   </bookViews>
   <sheets>
     <sheet name="ER図" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="77">
   <si>
     <t>ユーザーテーブル</t>
     <phoneticPr fontId="1"/>
@@ -128,19 +128,6 @@
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>識別用、一意</t>
-    <rPh sb="0" eb="2">
-      <t>シキベツ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>イチイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -307,15 +294,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>varchar(20)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -509,6 +488,44 @@
     <t>送信メンバーID</t>
     <rPh sb="0" eb="2">
       <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大50桁</t>
+    <rPh sb="4" eb="5">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大10桁</t>
+    <rPh sb="4" eb="5">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大20桁</t>
+    <rPh sb="4" eb="5">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大10桁</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大40桁</t>
+    <rPh sb="4" eb="5">
+      <t>ケタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -598,7 +615,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -614,14 +631,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -652,16 +666,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>134326</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>229496</xdr:rowOff>
+      <xdr:colOff>162905</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>10424</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0265C66E-F5B0-C262-3291-5FA5FD4BB887}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{491167E0-BFAF-ED6E-7668-796AB395BB2D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -678,7 +692,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="685800" y="238125"/>
-          <a:ext cx="6992326" cy="6420746"/>
+          <a:ext cx="7020905" cy="6439799"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1000,68 +1014,68 @@
   <sheetData>
     <row r="3" spans="13:15" x14ac:dyDescent="0.4">
       <c r="M3" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="13:15" x14ac:dyDescent="0.4">
       <c r="M4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="5" spans="13:15" x14ac:dyDescent="0.4">
       <c r="M5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="13:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="M6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="13:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="M7" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="13:15" ht="56.25" x14ac:dyDescent="0.4">
       <c r="M8" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1095,21 +1109,21 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
@@ -1123,7 +1137,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>11</v>
@@ -1134,40 +1148,42 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="E9" s="6"/>
+      <c r="E9" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1200,12 +1216,12 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
@@ -1219,7 +1235,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>11</v>
@@ -1233,19 +1249,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
@@ -1253,28 +1269,32 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1299,7 +1319,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -1314,7 +1334,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -1328,7 +1348,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>11</v>
@@ -1342,19 +1362,19 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -1362,45 +1382,49 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1410,17 +1434,17 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1431,7 +1455,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8529231-C562-4C83-BBB1-FC7315CD7DDC}">
-  <dimension ref="B2:G12"/>
+  <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1447,17 +1471,17 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
@@ -1471,7 +1495,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>11</v>
@@ -1485,48 +1509,43 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="E12" s="7"/>
+      <c r="E9" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1552,17 +1571,17 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
@@ -1576,7 +1595,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>11</v>
@@ -1587,22 +1606,22 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
@@ -1610,46 +1629,50 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1657,36 +1680,36 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" ht="93.75" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" ht="75" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
